--- a/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
+++ b/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E755B97-4C8D-4570-BA82-9A2C542D6787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="431">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1321,16 +1322,19 @@
     <t>9/23,26/2022</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-37)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE IV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2193,7 +2197,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2240,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2304,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2364,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2430,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2493,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2591,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2650,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2715,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2758,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2833,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3019,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3085,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3143,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3209,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3265,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3340,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3383,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3449,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3505,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3603,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3662,7 +3666,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3711,7 +3715,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3728,25 +3732,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K543" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K544" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K544" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3758,12 +3763,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3772,13 +3777,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4082,7 +4087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4092,7 +4097,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4100,34 +4105,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K543"/>
+  <dimension ref="A2:K544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A477" activePane="bottomLeft"/>
-      <selection activeCell="J9" sqref="J9"/>
-      <selection pane="bottomLeft" activeCell="E488" sqref="E488"/>
+      <pane ySplit="3696" topLeftCell="A443"/>
+      <selection activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="F445" sqref="F445"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4148,11 +4153,13 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>430</v>
+      </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -4166,7 +4173,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4188,7 +4195,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4196,7 +4203,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4209,7 +4216,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -4226,7 +4233,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4261,7 +4268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4270,7 +4277,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.075000000000102</v>
+        <v>65.200000000000102</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4280,12 +4287,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>245.25</v>
+        <v>263.45800000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>108</v>
       </c>
@@ -4307,7 +4314,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4333,7 +4340,7 @@
         <v>35916</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>35827</v>
@@ -4360,7 +4367,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>98</v>
@@ -4382,7 +4389,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>77</v>
@@ -4404,7 +4411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>116</v>
@@ -4426,7 +4433,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f>EDATE(A12,1)</f>
         <v>35855</v>
@@ -4449,7 +4456,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -4471,7 +4478,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>77</v>
@@ -4493,7 +4500,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>77</v>
@@ -4515,7 +4522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -4533,7 +4540,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f>EDATE(A16,1)</f>
         <v>35886</v>
@@ -4544,7 +4551,9 @@
       <c r="C21" s="13">
         <v>1.25</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
       <c r="E21" s="34"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
@@ -4558,13 +4567,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
       <c r="E22" s="34"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -4578,7 +4589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>122</v>
@@ -4598,7 +4609,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f>EDATE(A21,1)</f>
         <v>35916</v>
@@ -4623,7 +4634,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f>EDATE(A24,1)</f>
         <v>35947</v>
@@ -4650,7 +4661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" ref="A26:A142" si="0">EDATE(A25,1)</f>
         <v>35977</v>
@@ -4677,7 +4688,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>98</v>
@@ -4699,7 +4710,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>60</v>
@@ -4719,7 +4730,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A26,1)</f>
         <v>36008</v>
@@ -4746,7 +4757,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -4773,7 +4784,7 @@
         <v>35835</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>98</v>
@@ -4795,7 +4806,7 @@
         <v>36077</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
@@ -4817,7 +4828,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>60</v>
@@ -4837,7 +4848,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f>EDATE(A30,1)</f>
         <v>36069</v>
@@ -4864,7 +4875,7 @@
         <v>35956</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>53</v>
@@ -4886,7 +4897,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>127</v>
@@ -4908,7 +4919,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A34,1)</f>
         <v>36100</v>
@@ -4935,7 +4946,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>98</v>
@@ -4954,7 +4965,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>128</v>
@@ -4971,7 +4982,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A37,1)</f>
         <v>36130</v>
@@ -4996,7 +5007,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>109</v>
       </c>
@@ -5018,7 +5029,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>36161</v>
@@ -5045,7 +5056,7 @@
         <v>36495</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>98</v>
@@ -5064,7 +5075,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>128</v>
@@ -5081,7 +5092,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="49"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>36192</v>
@@ -5108,7 +5119,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>141</v>
@@ -5128,7 +5139,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f>EDATE(A45,1)</f>
         <v>36220</v>
@@ -5155,7 +5166,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>98</v>
@@ -5172,7 +5183,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>60</v>
@@ -5189,7 +5200,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A47,1)</f>
         <v>36251</v>
@@ -5214,7 +5225,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -5241,7 +5252,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>143</v>
@@ -5261,7 +5272,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>36312</v>
@@ -5284,7 +5295,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>98</v>
@@ -5306,7 +5317,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>53</v>
@@ -5328,7 +5339,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>60</v>
@@ -5348,7 +5359,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A53,1)</f>
         <v>36342</v>
@@ -5373,7 +5384,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5398,7 +5409,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5425,7 +5436,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>153</v>
@@ -5445,7 +5456,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>36434</v>
@@ -5472,7 +5483,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>154</v>
@@ -5492,7 +5503,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36465</v>
@@ -5519,7 +5530,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>98</v>
@@ -5541,7 +5552,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>155</v>
@@ -5561,7 +5572,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A63,1)</f>
         <v>36495</v>
@@ -5588,7 +5599,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>156</v>
@@ -5608,7 +5619,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>110</v>
       </c>
@@ -5630,7 +5641,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f>EDATE(A66,1)</f>
         <v>36526</v>
@@ -5655,7 +5666,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5682,7 +5693,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>98</v>
@@ -5701,7 +5712,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>162</v>
@@ -5720,7 +5731,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>163</v>
@@ -5737,7 +5748,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A70,1)</f>
         <v>36586</v>
@@ -5764,7 +5775,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -5787,7 +5798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>164</v>
@@ -5807,7 +5818,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36647</v>
@@ -5832,7 +5843,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -5857,7 +5868,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -5884,7 +5895,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>170</v>
@@ -5904,7 +5915,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>36739</v>
@@ -5929,7 +5940,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>36770</v>
@@ -5954,7 +5965,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -5981,7 +5992,7 @@
         <v>36809</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>59</v>
@@ -6001,7 +6012,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>36831</v>
@@ -6028,7 +6039,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>173</v>
@@ -6050,7 +6061,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>36861</v>
@@ -6075,7 +6086,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>113</v>
       </c>
@@ -6097,7 +6108,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36892</v>
@@ -6122,7 +6133,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>36923</v>
@@ -6149,7 +6160,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>98</v>
@@ -6171,7 +6182,7 @@
         <v>37227</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>98</v>
@@ -6193,7 +6204,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>83</v>
@@ -6213,7 +6224,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A90,1)</f>
         <v>36951</v>
@@ -6240,7 +6251,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>183</v>
@@ -6262,7 +6273,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>36982</v>
@@ -6287,7 +6298,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>37012</v>
@@ -6314,7 +6325,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6332,7 +6343,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>37043</v>
@@ -6357,7 +6368,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -6384,7 +6395,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>98</v>
@@ -6403,7 +6414,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>85</v>
@@ -6420,7 +6431,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A100,1)</f>
         <v>37104</v>
@@ -6447,7 +6458,7 @@
         <v>37050</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>60</v>
@@ -6467,7 +6478,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>37135</v>
@@ -6492,7 +6503,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -6519,7 +6530,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
         <v>37196</v>
@@ -6546,7 +6557,7 @@
         <v>37083</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>75</v>
@@ -6568,7 +6579,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>98</v>
@@ -6590,7 +6601,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>98</v>
@@ -6612,7 +6623,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>187</v>
@@ -6634,7 +6645,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A107,1)</f>
         <v>37226</v>
@@ -6661,7 +6672,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>197</v>
@@ -6681,7 +6692,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>112</v>
       </c>
@@ -6703,7 +6714,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A112,1)</f>
         <v>37257</v>
@@ -6730,7 +6741,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>199</v>
@@ -6750,7 +6761,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f>EDATE(A115,1)</f>
         <v>37288</v>
@@ -6777,7 +6788,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>200</v>
@@ -6797,7 +6808,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37316</v>
@@ -6824,7 +6835,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>98</v>
@@ -6846,7 +6857,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>202</v>
@@ -6866,7 +6877,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A119,1)</f>
         <v>37347</v>
@@ -6891,7 +6902,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -6912,7 +6923,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>204</v>
@@ -6932,7 +6943,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f>EDATE(A123,1)</f>
         <v>37408</v>
@@ -6953,7 +6964,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -6980,7 +6991,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>205</v>
@@ -7000,7 +7011,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>37469</v>
@@ -7027,7 +7038,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -7054,7 +7065,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>60</v>
@@ -7074,7 +7085,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37530</v>
@@ -7099,7 +7110,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="0"/>
         <v>37561</v>
@@ -7126,7 +7137,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>214</v>
@@ -7146,7 +7157,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>37591</v>
@@ -7171,7 +7182,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>111</v>
       </c>
@@ -7193,7 +7204,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>37622</v>
@@ -7220,7 +7231,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>98</v>
@@ -7242,7 +7253,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>203</v>
@@ -7262,7 +7273,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f>EDATE(A136,1)</f>
         <v>37653</v>
@@ -7289,7 +7300,7 @@
         <v>37896</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>63</v>
@@ -7309,7 +7320,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>37681</v>
@@ -7334,7 +7345,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -7361,7 +7372,7 @@
         <v>37929</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>215</v>
@@ -7383,7 +7394,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37742</v>
@@ -7408,7 +7419,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" ref="A145:A228" si="1">EDATE(A144,1)</f>
         <v>37773</v>
@@ -7433,7 +7444,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -7460,7 +7471,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>83</v>
@@ -7480,7 +7491,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37834</v>
@@ -7507,7 +7518,7 @@
         <v>37933</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>202</v>
@@ -7527,7 +7538,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>37865</v>
@@ -7552,7 +7563,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>60</v>
@@ -7572,7 +7583,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f>EDATE(A150,1)</f>
         <v>37895</v>
@@ -7599,7 +7610,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>98</v>
@@ -7621,7 +7632,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37926</v>
@@ -7646,7 +7657,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -7673,7 +7684,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>220</v>
@@ -7693,7 +7704,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48" t="s">
         <v>115</v>
       </c>
@@ -7715,7 +7726,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>37987</v>
@@ -7740,7 +7751,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -7767,7 +7778,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>227</v>
@@ -7787,7 +7798,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>38047</v>
@@ -7812,7 +7823,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -7837,7 +7848,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f>EDATE(A162,1)</f>
         <v>38108</v>
@@ -7864,7 +7875,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>98</v>
@@ -7886,7 +7897,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>233</v>
@@ -7906,7 +7917,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A163,1)</f>
         <v>38139</v>
@@ -7931,7 +7942,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -7958,7 +7969,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>85</v>
@@ -7978,7 +7989,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f>EDATE(A167,1)</f>
         <v>38200</v>
@@ -8003,7 +8014,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -8028,7 +8039,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -8053,7 +8064,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -8080,7 +8091,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>53</v>
@@ -8102,7 +8113,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>53</v>
@@ -8124,7 +8135,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>236</v>
@@ -8144,7 +8155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>75</v>
@@ -8166,7 +8177,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>237</v>
@@ -8186,7 +8197,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A172,1)</f>
         <v>38322</v>
@@ -8211,7 +8222,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="48" t="s">
         <v>114</v>
       </c>
@@ -8233,7 +8244,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38353</v>
@@ -8260,7 +8271,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>236</v>
@@ -8280,7 +8291,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>252</v>
@@ -8300,7 +8311,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>38384</v>
@@ -8325,7 +8336,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -8350,7 +8361,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -8375,7 +8386,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>254</v>
@@ -8395,7 +8406,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>38473</v>
@@ -8420,7 +8431,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -8447,7 +8458,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>78</v>
@@ -8467,7 +8478,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>38534</v>
@@ -8492,7 +8503,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -8517,7 +8528,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -8542,7 +8553,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -8567,7 +8578,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -8594,13 +8605,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>260</v>
       </c>
       <c r="C195" s="13"/>
-      <c r="D195" s="39"/>
+      <c r="D195" s="39">
+        <v>1.083</v>
+      </c>
       <c r="E195" s="34"/>
       <c r="F195" s="20"/>
       <c r="G195" s="13" t="str">
@@ -8612,7 +8625,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f>EDATE(A194,1)</f>
         <v>38687</v>
@@ -8639,7 +8652,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>261</v>
@@ -8661,7 +8674,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>92</v>
@@ -8683,7 +8696,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>220</v>
@@ -8703,7 +8716,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="48" t="s">
         <v>244</v>
       </c>
@@ -8725,7 +8738,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A196,1)</f>
         <v>38718</v>
@@ -8750,7 +8763,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f t="shared" si="1"/>
         <v>38749</v>
@@ -8777,7 +8790,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>98</v>
@@ -8799,7 +8812,7 @@
         <v>38992</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>269</v>
@@ -8819,7 +8832,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>38777</v>
@@ -8844,7 +8857,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -8869,7 +8882,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" si="1"/>
         <v>38838</v>
@@ -8894,7 +8907,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -8919,7 +8932,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="1"/>
         <v>38899</v>
@@ -8946,7 +8959,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>93</v>
@@ -8968,7 +8981,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>273</v>
@@ -8988,7 +9001,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A209,1)</f>
         <v>38930</v>
@@ -9015,7 +9028,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>274</v>
@@ -9035,7 +9048,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A212,1)</f>
         <v>38961</v>
@@ -9062,7 +9075,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>236</v>
@@ -9082,7 +9095,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>236</v>
@@ -9102,7 +9115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>274</v>
@@ -9122,7 +9135,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A214,1)</f>
         <v>38991</v>
@@ -9147,7 +9160,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" si="1"/>
         <v>39022</v>
@@ -9174,7 +9187,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>236</v>
@@ -9194,7 +9207,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>55</v>
@@ -9214,7 +9227,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A219,1)</f>
         <v>39052</v>
@@ -9239,7 +9252,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="48" t="s">
         <v>245</v>
       </c>
@@ -9261,7 +9274,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39083</v>
@@ -9286,7 +9299,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="1"/>
         <v>39114</v>
@@ -9311,7 +9324,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
@@ -9336,7 +9349,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -9361,7 +9374,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="1"/>
         <v>39203</v>
@@ -9386,7 +9399,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f t="shared" ref="A229:A324" si="2">EDATE(A228,1)</f>
         <v>39234</v>
@@ -9411,7 +9424,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -9438,7 +9451,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>88</v>
@@ -9460,7 +9473,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f>EDATE(A230,1)</f>
         <v>39295</v>
@@ -9485,7 +9498,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -9510,7 +9523,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>236</v>
@@ -9530,7 +9543,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>290</v>
@@ -9550,7 +9563,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A233,1)</f>
         <v>39356</v>
@@ -9577,7 +9590,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>261</v>
@@ -9597,7 +9610,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>291</v>
@@ -9617,7 +9630,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f>EDATE(A236,1)</f>
         <v>39387</v>
@@ -9644,7 +9657,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>236</v>
@@ -9664,7 +9677,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>292</v>
@@ -9684,7 +9697,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f>EDATE(A239,1)</f>
         <v>39417</v>
@@ -9711,7 +9724,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>293</v>
@@ -9731,7 +9744,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="48" t="s">
         <v>246</v>
       </c>
@@ -9753,7 +9766,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A242,1)</f>
         <v>39448</v>
@@ -9778,7 +9791,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="2"/>
         <v>39479</v>
@@ -9803,7 +9816,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="2"/>
         <v>39508</v>
@@ -9828,7 +9841,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="2"/>
         <v>39539</v>
@@ -9853,7 +9866,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -9878,7 +9891,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -9903,7 +9916,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -9928,7 +9941,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -9953,7 +9966,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="2"/>
         <v>39692</v>
@@ -9978,7 +9991,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="2"/>
         <v>39722</v>
@@ -10005,7 +10018,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>92</v>
@@ -10027,7 +10040,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>311</v>
@@ -10047,7 +10060,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A254,1)</f>
         <v>39753</v>
@@ -10074,7 +10087,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>236</v>
@@ -10094,7 +10107,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>236</v>
@@ -10114,7 +10127,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>312</v>
@@ -10134,7 +10147,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A257,1)</f>
         <v>39783</v>
@@ -10159,7 +10172,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="48" t="s">
         <v>247</v>
       </c>
@@ -10181,7 +10194,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>39814</v>
@@ -10206,7 +10219,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f t="shared" si="2"/>
         <v>39845</v>
@@ -10231,7 +10244,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -10256,7 +10269,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>39904</v>
@@ -10281,7 +10294,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -10306,7 +10319,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" si="2"/>
         <v>39965</v>
@@ -10331,7 +10344,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" si="2"/>
         <v>39995</v>
@@ -10356,7 +10369,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -10381,7 +10394,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="2"/>
         <v>40057</v>
@@ -10406,7 +10419,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
@@ -10431,7 +10444,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>328</v>
@@ -10451,7 +10464,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40118</v>
@@ -10478,7 +10491,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>199</v>
@@ -10498,7 +10511,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>40148</v>
@@ -10525,7 +10538,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>51</v>
@@ -10545,7 +10558,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>329</v>
@@ -10565,7 +10578,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="48" t="s">
         <v>248</v>
       </c>
@@ -10587,7 +10600,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A276,1)</f>
         <v>40179</v>
@@ -10612,7 +10625,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -10637,7 +10650,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" si="2"/>
         <v>40238</v>
@@ -10662,7 +10675,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="2"/>
         <v>40269</v>
@@ -10687,7 +10700,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -10712,7 +10725,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f t="shared" si="2"/>
         <v>40330</v>
@@ -10737,7 +10750,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -10762,7 +10775,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -10787,7 +10800,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f t="shared" si="2"/>
         <v>40422</v>
@@ -10814,7 +10827,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" si="2"/>
         <v>40452</v>
@@ -10841,7 +10854,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="2"/>
         <v>40483</v>
@@ -10866,7 +10879,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="2"/>
         <v>40513</v>
@@ -10891,7 +10904,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>261</v>
@@ -10913,7 +10926,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>344</v>
@@ -10933,7 +10946,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="48" t="s">
         <v>249</v>
       </c>
@@ -10953,7 +10966,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A291,1)</f>
         <v>40544</v>
@@ -10978,7 +10991,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="2"/>
         <v>40575</v>
@@ -11003,7 +11016,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f t="shared" si="2"/>
         <v>40603</v>
@@ -11028,7 +11041,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f t="shared" si="2"/>
         <v>40634</v>
@@ -11053,7 +11066,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" si="2"/>
         <v>40664</v>
@@ -11078,7 +11091,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="2"/>
         <v>40695</v>
@@ -11105,7 +11118,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>236</v>
@@ -11125,7 +11138,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>93</v>
@@ -11147,7 +11160,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>357</v>
@@ -11167,7 +11180,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A300,1)</f>
         <v>40725</v>
@@ -11192,7 +11205,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="2"/>
         <v>40756</v>
@@ -11217,7 +11230,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f t="shared" si="2"/>
         <v>40787</v>
@@ -11242,7 +11255,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" si="2"/>
         <v>40817</v>
@@ -11267,7 +11280,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="2"/>
         <v>40848</v>
@@ -11294,7 +11307,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>363</v>
@@ -11314,7 +11327,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>40878</v>
@@ -11341,7 +11354,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>51</v>
@@ -11361,7 +11374,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>364</v>
@@ -11381,7 +11394,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="48" t="s">
         <v>349</v>
       </c>
@@ -11403,7 +11416,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f>EDATE(A310,1)</f>
         <v>40909</v>
@@ -11430,7 +11443,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>276</v>
@@ -11452,7 +11465,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>368</v>
@@ -11472,7 +11485,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f>EDATE(A314,1)</f>
         <v>40940</v>
@@ -11497,7 +11510,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="2"/>
         <v>40969</v>
@@ -11522,7 +11535,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="2"/>
         <v>41000</v>
@@ -11547,7 +11560,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="2"/>
         <v>41030</v>
@@ -11572,7 +11585,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f t="shared" si="2"/>
         <v>41061</v>
@@ -11597,7 +11610,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="2"/>
         <v>41091</v>
@@ -11622,7 +11635,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="2"/>
         <v>41122</v>
@@ -11647,7 +11660,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f t="shared" si="2"/>
         <v>41153</v>
@@ -11672,7 +11685,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" ref="A325:A401" si="3">EDATE(A324,1)</f>
         <v>41183</v>
@@ -11697,7 +11710,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -11724,7 +11737,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>100</v>
@@ -11744,7 +11757,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>379</v>
@@ -11764,7 +11777,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A326,1)</f>
         <v>41244</v>
@@ -11789,7 +11802,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="48" t="s">
         <v>350</v>
       </c>
@@ -11811,7 +11824,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>41275</v>
@@ -11838,7 +11851,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -11865,7 +11878,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="3"/>
         <v>41334</v>
@@ -11886,7 +11899,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -11907,7 +11920,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -11928,7 +11941,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="3"/>
         <v>41426</v>
@@ -11953,7 +11966,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f t="shared" si="3"/>
         <v>41456</v>
@@ -11978,7 +11991,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="3"/>
         <v>41487</v>
@@ -12003,7 +12016,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f t="shared" si="3"/>
         <v>41518</v>
@@ -12024,7 +12037,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f t="shared" si="3"/>
         <v>41548</v>
@@ -12049,7 +12062,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f t="shared" si="3"/>
         <v>41579</v>
@@ -12074,7 +12087,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>60</v>
@@ -12094,7 +12107,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f>EDATE(A341,1)</f>
         <v>41609</v>
@@ -12121,7 +12134,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>357</v>
@@ -12141,7 +12154,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="48" t="s">
         <v>353</v>
       </c>
@@ -12163,7 +12176,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>41640</v>
@@ -12188,7 +12201,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="3"/>
         <v>41671</v>
@@ -12213,7 +12226,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="3"/>
         <v>41699</v>
@@ -12234,7 +12247,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="3"/>
         <v>41730</v>
@@ -12259,7 +12272,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f t="shared" si="3"/>
         <v>41760</v>
@@ -12284,7 +12297,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f t="shared" si="3"/>
         <v>41791</v>
@@ -12311,7 +12324,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>236</v>
@@ -12331,7 +12344,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>286</v>
@@ -12351,7 +12364,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>41821</v>
@@ -12372,7 +12385,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" si="3"/>
         <v>41852</v>
@@ -12393,7 +12406,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="3"/>
         <v>41883</v>
@@ -12418,7 +12431,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f t="shared" si="3"/>
         <v>41913</v>
@@ -12445,7 +12458,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>229</v>
@@ -12465,7 +12478,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>41944</v>
@@ -12490,7 +12503,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>92</v>
@@ -12512,7 +12525,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>276</v>
@@ -12534,7 +12547,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>396</v>
@@ -12554,7 +12567,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>41974</v>
@@ -12579,7 +12592,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="48" t="s">
         <v>352</v>
       </c>
@@ -12601,7 +12614,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f>EDATE(A363,1)</f>
         <v>42005</v>
@@ -12626,7 +12639,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f t="shared" si="3"/>
         <v>42036</v>
@@ -12653,7 +12666,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>398</v>
@@ -12675,7 +12688,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>253</v>
@@ -12695,7 +12708,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f>EDATE(A366,1)</f>
         <v>42064</v>
@@ -12722,7 +12735,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>261</v>
@@ -12744,7 +12757,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>399</v>
@@ -12764,7 +12777,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f>EDATE(A369,1)</f>
         <v>42095</v>
@@ -12791,7 +12804,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>400</v>
@@ -12811,7 +12824,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>42125</v>
@@ -12836,7 +12849,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="3"/>
         <v>42156</v>
@@ -12861,7 +12874,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>88</v>
@@ -12881,7 +12894,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>42186</v>
@@ -12906,7 +12919,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="3"/>
         <v>42217</v>
@@ -12931,7 +12944,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f t="shared" si="3"/>
         <v>42248</v>
@@ -12956,7 +12969,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="3"/>
         <v>42278</v>
@@ -12983,7 +12996,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>404</v>
@@ -13005,7 +13018,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>293</v>
@@ -13025,7 +13038,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A380,1)</f>
         <v>42309</v>
@@ -13052,7 +13065,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>410</v>
@@ -13072,7 +13085,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f>EDATE(A383,1)</f>
         <v>42339</v>
@@ -13097,7 +13110,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>98</v>
@@ -13119,7 +13132,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>236</v>
@@ -13139,7 +13152,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>411</v>
@@ -13159,7 +13172,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="48" t="s">
         <v>351</v>
       </c>
@@ -13181,7 +13194,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f>EDATE(A385,1)</f>
         <v>42370</v>
@@ -13206,7 +13219,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f t="shared" si="3"/>
         <v>42401</v>
@@ -13231,7 +13244,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" si="3"/>
         <v>42430</v>
@@ -13258,7 +13271,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>418</v>
@@ -13278,7 +13291,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>42461</v>
@@ -13303,7 +13316,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f t="shared" si="3"/>
         <v>42491</v>
@@ -13328,7 +13341,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -13353,7 +13366,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -13378,7 +13391,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -13403,7 +13416,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -13428,7 +13441,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f t="shared" si="3"/>
         <v>42644</v>
@@ -13453,7 +13466,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f t="shared" si="3"/>
         <v>42675</v>
@@ -13478,7 +13491,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>77</v>
@@ -13500,7 +13513,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>424</v>
@@ -13520,7 +13533,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f>EDATE(A401,1)</f>
         <v>42705</v>
@@ -13545,7 +13558,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="48" t="s">
         <v>45</v>
       </c>
@@ -13563,7 +13576,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42736</v>
       </c>
@@ -13587,7 +13600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>53</v>
@@ -13609,7 +13622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>55</v>
@@ -13631,7 +13644,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>42767</v>
       </c>
@@ -13655,7 +13668,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>42795</v>
       </c>
@@ -13679,7 +13692,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>42826</v>
       </c>
@@ -13703,7 +13716,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>42856</v>
       </c>
@@ -13727,7 +13740,7 @@
       <c r="J412" s="12"/>
       <c r="K412" s="15"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42887</v>
       </c>
@@ -13751,7 +13764,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>42917</v>
       </c>
@@ -13775,7 +13788,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>42948</v>
       </c>
@@ -13799,7 +13812,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>42979</v>
       </c>
@@ -13823,7 +13836,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>43009</v>
       </c>
@@ -13847,7 +13860,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>43040</v>
       </c>
@@ -13873,7 +13886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>43070</v>
       </c>
@@ -13893,7 +13906,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="48" t="s">
         <v>46</v>
       </c>
@@ -13911,7 +13924,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>43101</v>
       </c>
@@ -13931,7 +13944,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>43132</v>
       </c>
@@ -13957,7 +13970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>43160</v>
       </c>
@@ -13977,7 +13990,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>43191</v>
       </c>
@@ -13997,7 +14010,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>43221</v>
       </c>
@@ -14021,7 +14034,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>43252</v>
       </c>
@@ -14045,7 +14058,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>43282</v>
       </c>
@@ -14069,7 +14082,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>43313</v>
       </c>
@@ -14093,7 +14106,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>43344</v>
       </c>
@@ -14117,7 +14130,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>43374</v>
       </c>
@@ -14141,7 +14154,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>43405</v>
       </c>
@@ -14167,7 +14180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>78</v>
@@ -14187,7 +14200,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>43435</v>
       </c>
@@ -14213,7 +14226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>80</v>
@@ -14233,7 +14246,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="48" t="s">
         <v>47</v>
       </c>
@@ -14251,7 +14264,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>43466</v>
       </c>
@@ -14277,7 +14290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>82</v>
@@ -14297,7 +14310,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43497</v>
       </c>
@@ -14321,7 +14334,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>43525</v>
       </c>
@@ -14347,7 +14360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>43556</v>
       </c>
@@ -14371,7 +14384,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>43586</v>
       </c>
@@ -14395,7 +14408,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>43617</v>
       </c>
@@ -14419,7 +14432,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43647</v>
       </c>
@@ -14443,7 +14456,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>43678</v>
       </c>
@@ -14467,7 +14480,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43709</v>
       </c>
@@ -14491,7 +14504,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43739</v>
       </c>
@@ -14515,7 +14528,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>43770</v>
       </c>
@@ -14539,7 +14552,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>43800</v>
       </c>
@@ -14565,7 +14578,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>92</v>
@@ -14585,7 +14598,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>69</v>
@@ -14605,7 +14618,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="48" t="s">
         <v>48</v>
       </c>
@@ -14623,7 +14636,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>43831</v>
       </c>
@@ -14647,7 +14660,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>43862</v>
       </c>
@@ -14667,7 +14680,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43891</v>
       </c>
@@ -14687,7 +14700,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43922</v>
       </c>
@@ -14707,7 +14720,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>43952</v>
       </c>
@@ -14727,7 +14740,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43983</v>
       </c>
@@ -14747,7 +14760,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>44013</v>
       </c>
@@ -14767,7 +14780,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44044</v>
       </c>
@@ -14787,7 +14800,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>44075</v>
       </c>
@@ -14807,7 +14820,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>44105</v>
       </c>
@@ -14827,7 +14840,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>44136</v>
       </c>
@@ -14847,7 +14860,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>44166</v>
       </c>
@@ -14873,7 +14886,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>97</v>
@@ -14893,7 +14906,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="48" t="s">
         <v>49</v>
       </c>
@@ -14911,7 +14924,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>44197</v>
       </c>
@@ -14931,7 +14944,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>44228</v>
       </c>
@@ -14957,7 +14970,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>77</v>
@@ -14979,7 +14992,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>44256</v>
       </c>
@@ -14999,7 +15012,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>44287</v>
       </c>
@@ -15019,7 +15032,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>44317</v>
       </c>
@@ -15039,7 +15052,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>44348</v>
       </c>
@@ -15059,7 +15072,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>44378</v>
       </c>
@@ -15079,7 +15092,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>44409</v>
       </c>
@@ -15099,7 +15112,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>44440</v>
       </c>
@@ -15125,7 +15138,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>67</v>
@@ -15147,7 +15160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44470</v>
       </c>
@@ -15167,7 +15180,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>44501</v>
       </c>
@@ -15187,7 +15200,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44531</v>
       </c>
@@ -15211,7 +15224,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="48" t="s">
         <v>50</v>
       </c>
@@ -15229,7 +15242,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44562</v>
       </c>
@@ -15255,7 +15268,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44593</v>
       </c>
@@ -15281,7 +15294,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44621</v>
       </c>
@@ -15301,7 +15314,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44652</v>
       </c>
@@ -15321,7 +15334,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>44682</v>
       </c>
@@ -15341,7 +15354,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44713</v>
       </c>
@@ -15361,7 +15374,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44743</v>
       </c>
@@ -15387,10 +15400,10 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C488" s="13"/>
       <c r="D488" s="39">
@@ -15407,7 +15420,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="49"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44774</v>
       </c>
@@ -15429,7 +15442,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44805</v>
       </c>
@@ -15453,7 +15466,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>75</v>
@@ -15475,10 +15488,10 @@
         <v>427</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
-        <v>428</v>
+        <v>261</v>
       </c>
       <c r="C492" s="13"/>
       <c r="D492" s="39">
@@ -15497,7 +15510,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44835</v>
       </c>
@@ -15523,7 +15536,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>44866</v>
       </c>
@@ -15543,7 +15556,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44896</v>
       </c>
@@ -15567,7 +15580,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="48" t="s">
         <v>105</v>
       </c>
@@ -15585,7 +15598,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44927</v>
       </c>
@@ -15605,7 +15618,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44958</v>
       </c>
@@ -15625,7 +15638,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44986</v>
       </c>
@@ -15645,171 +15658,193 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>45017</v>
       </c>
       <c r="B500" s="20"/>
-      <c r="C500" s="13"/>
+      <c r="C500" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D500" s="39"/>
       <c r="E500" s="9"/>
       <c r="F500" s="20"/>
-      <c r="G500" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G500" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H500" s="39"/>
       <c r="I500" s="9"/>
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>45047</v>
       </c>
       <c r="B501" s="20"/>
-      <c r="C501" s="13"/>
+      <c r="C501" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D501" s="39"/>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
-      <c r="G501" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G501" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H501" s="39"/>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>45078</v>
       </c>
       <c r="B502" s="20"/>
-      <c r="C502" s="13"/>
+      <c r="C502" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D502" s="39"/>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G502" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>45108</v>
       </c>
       <c r="B503" s="20"/>
-      <c r="C503" s="13"/>
+      <c r="C503" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D503" s="39"/>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
-      <c r="G503" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G503" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H503" s="39"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>45139</v>
       </c>
       <c r="B504" s="20"/>
-      <c r="C504" s="13"/>
+      <c r="C504" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D504" s="39"/>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G504" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>45170</v>
       </c>
       <c r="B505" s="20"/>
-      <c r="C505" s="13"/>
+      <c r="C505" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D505" s="39"/>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G505" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>45200</v>
       </c>
       <c r="B506" s="20"/>
-      <c r="C506" s="13"/>
+      <c r="C506" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D506" s="39"/>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
-      <c r="G506" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G506" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>45231</v>
       </c>
       <c r="B507" s="20"/>
-      <c r="C507" s="13"/>
+      <c r="C507" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D507" s="39"/>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G507" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>45261</v>
       </c>
-      <c r="B508" s="20"/>
-      <c r="C508" s="13"/>
-      <c r="D508" s="39"/>
+      <c r="B508" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D508" s="39">
+        <v>5</v>
+      </c>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="40">
-        <v>45292</v>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" s="48" t="s">
+        <v>429</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15825,113 +15860,127 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B511" s="20"/>
-      <c r="C511" s="13"/>
+      <c r="C511" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D511" s="39"/>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
-      <c r="G511" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G511" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B512" s="20"/>
-      <c r="C512" s="13"/>
+      <c r="C512" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G512" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B513" s="20"/>
-      <c r="C513" s="13"/>
+      <c r="C513" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D513" s="39"/>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G513" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H513" s="39"/>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B514" s="20"/>
-      <c r="C514" s="13"/>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D514" s="39"/>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A515" s="40"/>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="40">
+        <v>45459</v>
+      </c>
       <c r="B515" s="20"/>
-      <c r="C515" s="13"/>
+      <c r="C515" s="13">
+        <v>0.70800000000000007</v>
+      </c>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.70800000000000007</v>
       </c>
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15947,7 +15996,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15963,7 +16012,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15979,7 +16028,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15995,7 +16044,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -16011,7 +16060,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -16027,7 +16076,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -16043,7 +16092,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -16059,7 +16108,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -16075,7 +16124,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -16091,7 +16140,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -16107,7 +16156,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -16123,7 +16172,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -16139,7 +16188,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -16155,7 +16204,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -16171,7 +16220,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -16187,7 +16236,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -16203,7 +16252,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -16219,7 +16268,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -16235,7 +16284,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -16251,7 +16300,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -16267,7 +16316,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -16283,7 +16332,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -16299,7 +16348,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -16315,7 +16364,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -16331,7 +16380,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -16347,7 +16396,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16363,21 +16412,37 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="41"/>
-      <c r="B543" s="15"/>
-      <c r="C543" s="42"/>
-      <c r="D543" s="43"/>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A543" s="40"/>
+      <c r="B543" s="20"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="39"/>
       <c r="E543" s="9"/>
-      <c r="F543" s="15"/>
-      <c r="G543" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H543" s="43"/>
+      <c r="F543" s="20"/>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="39"/>
       <c r="I543" s="9"/>
-      <c r="J543" s="12"/>
-      <c r="K543" s="15"/>
+      <c r="J543" s="11"/>
+      <c r="K543" s="20"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A544" s="41"/>
+      <c r="B544" s="15"/>
+      <c r="C544" s="42"/>
+      <c r="D544" s="43"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="15"/>
+      <c r="G544" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H544" s="43"/>
+      <c r="I544" s="9"/>
+      <c r="J544" s="12"/>
+      <c r="K544" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16394,10 +16459,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16420,7 +16485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16428,21 +16493,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -16455,7 +16520,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16484,19 +16549,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3"/>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.7000000000000013E-2</v>
+        <v>1.083</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -16508,17 +16575,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16539,7 +16606,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16566,7 +16633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16592,7 +16659,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16618,7 +16685,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16644,7 +16711,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16670,7 +16737,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16696,7 +16763,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16722,7 +16789,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16748,7 +16815,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16768,7 +16835,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16788,7 +16855,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16808,7 +16875,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16829,7 +16896,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16850,7 +16917,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16871,7 +16938,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16892,7 +16959,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16913,7 +16980,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16934,7 +17001,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16955,7 +17022,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16976,7 +17043,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16997,7 +17064,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17018,7 +17085,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17039,7 +17106,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17060,7 +17127,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17081,7 +17148,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17102,7 +17169,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17123,7 +17190,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17144,7 +17211,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17165,7 +17232,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17186,7 +17253,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17207,7 +17274,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17228,7 +17295,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17237,7 +17304,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17246,7 +17313,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17255,7 +17322,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17264,7 +17331,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17273,7 +17340,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17282,7 +17349,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17291,7 +17358,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17300,7 +17367,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17309,7 +17376,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17318,7 +17385,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17327,7 +17394,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17336,7 +17403,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17345,7 +17412,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17354,7 +17421,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17363,7 +17430,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17372,7 +17439,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17381,7 +17448,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17390,7 +17457,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17399,7 +17466,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17408,7 +17475,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17417,7 +17484,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17426,7 +17493,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17435,7 +17502,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17444,7 +17511,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17453,7 +17520,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17462,7 +17529,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17471,7 +17538,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17480,7 +17547,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17489,7 +17556,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
+++ b/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="432">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2199,7 +2199,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2242,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2366,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2432,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2495,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2593,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2652,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,7 +2717,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2835,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3021,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,7 +3087,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +3145,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3211,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3267,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3385,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,7 +3451,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3507,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3605,7 +3605,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3668,7 +3668,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,8 +3734,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K544" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K544"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K545" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K545"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4111,12 +4111,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K544"/>
+  <dimension ref="A2:K545"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A491" activePane="bottomLeft"/>
       <selection activeCell="O7" sqref="O7"/>
-      <selection pane="bottomLeft" activeCell="E508" sqref="E508"/>
+      <selection pane="bottomLeft" activeCell="G513" sqref="G513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,7 +4279,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.200000000000102</v>
+        <v>64.200000000000102</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15827,63 +15827,63 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C508" s="13">
-        <v>1.25</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C508" s="13"/>
       <c r="D508" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="20" t="s">
-        <v>431</v>
-      </c>
+      <c r="K508" s="49"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="B509" s="20"/>
-      <c r="C509" s="13"/>
-      <c r="D509" s="39"/>
+      <c r="A509" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B509" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C509" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D509" s="39">
+        <v>5</v>
+      </c>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G509" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20"/>
+      <c r="K509" s="20" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A510" s="40">
-        <v>45292</v>
+      <c r="A510" s="48" t="s">
+        <v>429</v>
       </c>
       <c r="B510" s="20"/>
-      <c r="C510" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C510" s="13"/>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
@@ -15892,7 +15892,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13">
@@ -15912,7 +15912,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13">
@@ -15932,7 +15932,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13">
@@ -15952,7 +15952,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13">
@@ -15972,18 +15972,18 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45459</v>
+        <v>45413</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13">
-        <v>0.70800000000000007</v>
+        <v>1.25</v>
       </c>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
       <c r="G515" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>0.70800000000000007</v>
+        <v>1.25</v>
       </c>
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
@@ -15991,15 +15991,19 @@
       <c r="K515" s="20"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="40"/>
+      <c r="A516" s="40">
+        <v>45459</v>
+      </c>
       <c r="B516" s="20"/>
-      <c r="C516" s="13"/>
+      <c r="C516" s="13">
+        <v>0.70800000000000007</v>
+      </c>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G516" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.70800000000000007</v>
       </c>
       <c r="H516" s="39"/>
       <c r="I516" s="9"/>
@@ -16439,20 +16443,36 @@
       <c r="K543" s="20"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A544" s="41"/>
-      <c r="B544" s="15"/>
-      <c r="C544" s="42"/>
-      <c r="D544" s="43"/>
+      <c r="A544" s="40"/>
+      <c r="B544" s="20"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="39"/>
       <c r="E544" s="9"/>
-      <c r="F544" s="15"/>
-      <c r="G544" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H544" s="43"/>
+      <c r="F544" s="20"/>
+      <c r="G544" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H544" s="39"/>
       <c r="I544" s="9"/>
-      <c r="J544" s="12"/>
-      <c r="K544" s="15"/>
+      <c r="J544" s="11"/>
+      <c r="K544" s="20"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A545" s="41"/>
+      <c r="B545" s="15"/>
+      <c r="C545" s="42"/>
+      <c r="D545" s="43"/>
+      <c r="E545" s="9"/>
+      <c r="F545" s="15"/>
+      <c r="G545" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H545" s="43"/>
+      <c r="I545" s="9"/>
+      <c r="J545" s="12"/>
+      <c r="K545" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
+++ b/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="434">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1331,6 +1331,12 @@
   </si>
   <si>
     <t>12/11,15,18,26,29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-46)</t>
+  </si>
+  <si>
+    <t>UT(0-4-1)</t>
   </si>
 </sst>
 </file>
@@ -4116,7 +4122,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A491" activePane="bottomLeft"/>
       <selection activeCell="O7" sqref="O7"/>
-      <selection pane="bottomLeft" activeCell="G513" sqref="G513"/>
+      <selection pane="bottomLeft" activeCell="E502" sqref="E502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,7 +4285,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>64.200000000000102</v>
+        <v>63.506000000000142</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15604,11 +15610,15 @@
       <c r="A497" s="40">
         <v>44927</v>
       </c>
-      <c r="B497" s="20"/>
+      <c r="B497" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="C497" s="13">
         <v>1.25</v>
       </c>
-      <c r="D497" s="39"/>
+      <c r="D497" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E497" s="9"/>
       <c r="F497" s="20"/>
       <c r="G497" s="13">
@@ -15624,11 +15634,15 @@
       <c r="A498" s="40">
         <v>44958</v>
       </c>
-      <c r="B498" s="20"/>
+      <c r="B498" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C498" s="13">
         <v>1.25</v>
       </c>
-      <c r="D498" s="39"/>
+      <c r="D498" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
       <c r="G498" s="13">
@@ -15644,11 +15658,15 @@
       <c r="A499" s="40">
         <v>44986</v>
       </c>
-      <c r="B499" s="20"/>
+      <c r="B499" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="C499" s="13">
         <v>1.25</v>
       </c>
-      <c r="D499" s="39"/>
+      <c r="D499" s="39">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
       <c r="G499" s="13">
@@ -15684,11 +15702,15 @@
       <c r="A501" s="40">
         <v>45047</v>
       </c>
-      <c r="B501" s="20"/>
+      <c r="B501" s="20" t="s">
+        <v>433</v>
+      </c>
       <c r="C501" s="13">
         <v>1.25</v>
       </c>
-      <c r="D501" s="39"/>
+      <c r="D501" s="39">
+        <v>0.502</v>
+      </c>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
       <c r="G501" s="13">
@@ -15724,11 +15746,15 @@
       <c r="A503" s="40">
         <v>45108</v>
       </c>
-      <c r="B503" s="20"/>
+      <c r="B503" s="20" t="s">
+        <v>432</v>
+      </c>
       <c r="C503" s="13">
         <v>1.25</v>
       </c>
-      <c r="D503" s="39"/>
+      <c r="D503" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
       <c r="G503" s="13">
@@ -15744,11 +15770,15 @@
       <c r="A504" s="40">
         <v>45139</v>
       </c>
-      <c r="B504" s="20"/>
+      <c r="B504" s="20" t="s">
+        <v>403</v>
+      </c>
       <c r="C504" s="13">
         <v>1.25</v>
       </c>
-      <c r="D504" s="39"/>
+      <c r="D504" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
       <c r="G504" s="13">
@@ -16582,18 +16612,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.083</v>
+        <v>0.01</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
+++ b/REGULAR/ACCOUNTING/BAYBAY, LOLITA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="434">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2205,7 +2205,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2248,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2312,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2372,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2438,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2501,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2599,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2658,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2723,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2766,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2841,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3027,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3093,7 +3093,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3151,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3217,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,7 +3273,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +3348,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3391,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3457,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3513,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3611,7 +3611,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3674,7 +3674,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4120,9 +4120,9 @@
   <dimension ref="A2:K545"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A491" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A494" activePane="bottomLeft"/>
       <selection activeCell="O7" sqref="O7"/>
-      <selection pane="bottomLeft" activeCell="E502" sqref="E502"/>
+      <selection pane="bottomLeft" activeCell="E512" sqref="E512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15924,7 +15924,9 @@
       <c r="A511" s="40">
         <v>45292</v>
       </c>
-      <c r="B511" s="20"/>
+      <c r="B511" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="C511" s="13">
         <v>1.25</v>
       </c>
@@ -15938,7 +15940,9 @@
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20"/>
+      <c r="K511" s="49">
+        <v>45334</v>
+      </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
